--- a/Assets/StreamingAssets/StoryScript8.xlsx
+++ b/Assets/StreamingAssets/StoryScript8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25BE80-69EF-DC42-AB12-916A07375321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6943C-4565-EE4E-BC3D-4951D06A9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>Dee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dee-Thinking1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +591,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -666,10 +662,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -696,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -704,10 +700,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -727,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -739,12 +735,8 @@
         <v>20</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -754,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -777,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -800,10 +792,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -820,10 +812,10 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
